--- a/Excel for Batch23.xlsx
+++ b/Excel for Batch23.xlsx
@@ -8,18 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interviews\batch23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{626E4B56-9F17-4936-87ED-3B6AA381F97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93399CA1-E252-42C6-9E12-C8CA89803302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="3" xr2:uid="{AE266A49-E809-4277-A811-C747DF6404C8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="5" xr2:uid="{AE266A49-E809-4277-A811-C747DF6404C8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName name="Age">Sheet4!$E$2:$E$51</definedName>
+    <definedName name="City">Sheet4!$A$2:$A$51</definedName>
+    <definedName name="Dept">Sheet4!$B$2:$B$51</definedName>
     <definedName name="EmpData">Sheet4!$A$1:$E$51</definedName>
+    <definedName name="EmpID">Sheet4!$C$2:$C$51</definedName>
+    <definedName name="Salary">Sheet4!$D$2:$D$51</definedName>
+    <definedName name="SearchID">Sheet4!$I$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,8 +49,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="122">
   <si>
     <t>Name</t>
   </si>
@@ -366,6 +396,48 @@
   </si>
   <si>
     <t>Hyd</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -403,7 +475,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -411,16 +483,96 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -436,6 +588,2265 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:strRef>
+          <c:f>Sheet5!$G$1</c:f>
+          <c:strCache>
+            <c:ptCount val="1"/>
+            <c:pt idx="0">
+              <c:v>Top 6</c:v>
+            </c:pt>
+          </c:strCache>
+        </c:strRef>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Top 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$G$2:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7950300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9566800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8201100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8464300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9738100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4299-4C6B-B850-FC57D2D2F152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet5!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Not Top 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet5!$F$2:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet5!$H$2:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5206200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5201200</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7686100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7873500</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5042500</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6993900</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4299-4C6B-B850-FC57D2D2F152}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="1445195151"/>
+        <c:axId val="1445188911"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1445195151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445188911"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1445188911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1445195151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="50000"/>
+                <a:lumOff val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>630050</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>724200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>313480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>227860</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>658660</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>383890</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>245880</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>517920</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>718350</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>496780</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>402990</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>285930</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-03DB-490A-BD3E-C570E9E7C3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="113919391"/>
+        <c:axId val="113916511"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="33000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$A$2:$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>Jan</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Feb</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Apr</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>May</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Jun</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jul</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Aug</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Sep</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Oct</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Nov</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Dec</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$C$2:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>724270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>533000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430760</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>329520</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>550800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>450650</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>560390</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>537790</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>297100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>707660</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>727290</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>629260</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-03DB-490A-BD3E-C570E9E7C3D1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="109"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1445202831"/>
+        <c:axId val="1445202351"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="113919391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113916511"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113916511"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113919391"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1445202351"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="900000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1445202831"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1445202831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1445202351"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Spin" dx="22" fmlaLink="$D$2" max="6" min="1" page="10" val="6"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>240197</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19879</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>331304</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>96079</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23641BF4-93D5-E26F-F394-7B47451F5531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor>
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>239367</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>157377</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>591792</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>62127</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5121" name="Spinner 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s5121"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001140000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>579783</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>115957</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314739</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71230</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EF5587-9C2E-8918-FD60-ACB3FAAD09FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1914,883 +4325,1467 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0451D354-A4F2-4490-872E-A6E394B872A5}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.28515625" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2">
+        <v>57900</v>
+      </c>
+      <c r="E2">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3">
+        <v>96400</v>
+      </c>
+      <c r="E3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>60600</v>
+      </c>
+      <c r="E4">
+        <v>38</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" s="4" t="str">
+        <f>INDEX(EmpData,MATCH(I2,$C$1:$C$51,0),1)</f>
+        <v>Che</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L4" s="4" t="str">
+        <f>LOOKUP(SearchID,EmpID,City)</f>
+        <v>Che</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5">
+        <v>46400</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>INDEX(EmpData,MATCH(I2,$C$1:$C$51,0),2)</f>
+        <v>Admin</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="L5" s="6" t="str">
+        <f>LOOKUP(SearchID,EmpID,Dept)</f>
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>47700</v>
+      </c>
+      <c r="E6">
+        <v>38</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I6" s="6">
+        <f>INDEX(EmpData,MATCH(I2,$C$1:$C$51,0),4)</f>
+        <v>46400</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L6" s="6">
+        <f>LOOKUP(SearchID,EmpID,Salary)</f>
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7">
+        <v>41200</v>
+      </c>
+      <c r="E7">
+        <v>26</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="8">
+        <f>INDEX(EmpData,MATCH(I2,$C$1:$C$51,0),5)</f>
+        <v>41</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="8">
+        <f>LOOKUP(SearchID,EmpID,Age)</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8">
+        <v>61400</v>
+      </c>
+      <c r="E8">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9">
+        <v>53800</v>
+      </c>
+      <c r="E9">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="4" t="str" cm="1">
+        <f t="array" ref="I9">INDEX(EmpData,MATCH(SearchID,EmpID,0)+1,1)</f>
+        <v>Che</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="L9" s="10" t="str">
+        <f ca="1">LOOKUP(SearchID,EmpID,INDIRECT(K9))</f>
+        <v>Che</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10">
+        <v>74600</v>
+      </c>
+      <c r="E10">
+        <v>34</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="I10" s="6" t="str" cm="1">
+        <f t="array" ref="I10">INDEX(EmpData,MATCH(SearchID,EmpID,0)+1,2)</f>
+        <v>Admin</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="12" t="str">
+        <f ca="1">LOOKUP(SearchID,EmpID,INDIRECT(K10))</f>
+        <v>Admin</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11" t="s">
+        <v>100</v>
+      </c>
+      <c r="C11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11">
+        <v>39500</v>
+      </c>
+      <c r="E11">
+        <v>39</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I11" s="6" cm="1">
+        <f t="array" ref="I11">INDEX(EmpData,MATCH(SearchID,EmpID,0)+1,4)</f>
+        <v>46400</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" s="12">
+        <f ca="1">LOOKUP(SearchID,EmpID,INDIRECT(K11))</f>
+        <v>46400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>13000</v>
+      </c>
+      <c r="E12">
+        <v>58</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="8" cm="1">
+        <f t="array" ref="I12">INDEX(EmpData,MATCH(SearchID,EmpID,0)+1,5)</f>
+        <v>41</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="L12" s="14">
+        <f ca="1">LOOKUP(SearchID,EmpID,INDIRECT(K12))</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13">
+        <v>57500</v>
+      </c>
+      <c r="E13">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>21800</v>
+      </c>
+      <c r="E14">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15">
+        <v>31400</v>
+      </c>
+      <c r="E15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>21200</v>
+      </c>
+      <c r="E16">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17">
+        <v>21000</v>
+      </c>
+      <c r="E17">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18">
+        <v>97500</v>
+      </c>
+      <c r="E18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D19">
+        <v>59100</v>
+      </c>
+      <c r="E19">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20">
+        <v>37600</v>
+      </c>
+      <c r="E20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21">
+        <v>37900</v>
+      </c>
+      <c r="E21">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22">
+        <v>55200</v>
+      </c>
+      <c r="E22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23">
+        <v>35500</v>
+      </c>
+      <c r="E23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24">
+        <v>42500</v>
+      </c>
+      <c r="E24">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25">
+        <v>11000</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <v>26400</v>
+      </c>
+      <c r="E26">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>101</v>
+      </c>
+      <c r="B27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>26800</v>
+      </c>
+      <c r="E27">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B28" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28">
+        <v>93400</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B29" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29">
+        <v>89800</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30">
+        <v>57800</v>
+      </c>
+      <c r="E30">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31">
+        <v>55800</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>96</v>
+      </c>
+      <c r="B32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D32">
+        <v>51800</v>
+      </c>
+      <c r="E32">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D33">
+        <v>20100</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34">
+        <v>40300</v>
+      </c>
+      <c r="E34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>20100</v>
+      </c>
+      <c r="E35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36">
+        <v>63100</v>
+      </c>
+      <c r="E36">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37">
+        <v>83500</v>
+      </c>
+      <c r="E37">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38">
+        <v>60100</v>
+      </c>
+      <c r="E38">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39">
+        <v>44800</v>
+      </c>
+      <c r="E39">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>97</v>
+      </c>
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+      <c r="D40">
+        <v>81800</v>
+      </c>
+      <c r="E40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41">
+        <v>90200</v>
+      </c>
+      <c r="E41">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42">
+        <v>34600</v>
+      </c>
+      <c r="E42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43">
+        <v>62100</v>
+      </c>
+      <c r="E43">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44">
+        <v>43400</v>
+      </c>
+      <c r="E44">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>100</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45">
+        <v>63800</v>
+      </c>
+      <c r="E45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" t="s">
+        <v>106</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46">
+        <v>62900</v>
+      </c>
+      <c r="E46">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D47">
+        <v>47900</v>
+      </c>
+      <c r="E47">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>88</v>
+      </c>
+      <c r="D48">
+        <v>69900</v>
+      </c>
+      <c r="E48">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49">
+        <v>71400</v>
+      </c>
+      <c r="E49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>106</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
+      </c>
+      <c r="D50">
+        <v>63900</v>
+      </c>
+      <c r="E50">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51">
+        <v>11500</v>
+      </c>
+      <c r="E51">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2" xr:uid="{F1BCA881-F04D-4AA7-999C-8B913816EAA8}">
+      <formula1>$C$2:$C$51</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F17E9B99-4877-4AA0-A3BC-879594DFE926}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="1" t="str">
+        <f>"Top "&amp;D2</f>
+        <v>Top 6</v>
+      </c>
+      <c r="H1" s="1" t="str">
+        <f>"Not Top "&amp;D2</f>
+        <v>Not Top 6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>7950300</v>
       </c>
       <c r="D2">
-        <v>57900</v>
-      </c>
-      <c r="E2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G2">
+        <f>IF( B2 &lt; LARGE($B$2:$B$13,$D$2), NA(), B2 )</f>
+        <v>7950300</v>
+      </c>
+      <c r="H2" t="e">
+        <f>IF( B2 &lt; LARGE($B$2:$B$13,$D$2), B2, NA() )</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3">
-        <v>96400</v>
-      </c>
-      <c r="E3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>5206200</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="e">
+        <f t="shared" ref="G3:G13" si="0">IF( B3 &lt; LARGE($B$2:$B$13,$D$2), NA(), B3 )</f>
+        <v>#N/A</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H13" si="1">IF( B3 &lt; LARGE($B$2:$B$13,$D$2), B3, NA() )</f>
+        <v>5206200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4">
-        <v>60600</v>
-      </c>
-      <c r="E4">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>5201200</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="1"/>
+        <v>5201200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>46400</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>9566800</v>
+      </c>
+      <c r="F5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>9566800</v>
+      </c>
+      <c r="H5" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <v>47700</v>
-      </c>
-      <c r="E6">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>7686100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="1"/>
+        <v>7686100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7">
-        <v>41200</v>
-      </c>
-      <c r="E7">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>7873500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="1"/>
+        <v>7873500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8">
-        <v>61400</v>
-      </c>
-      <c r="E8">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>9999999</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>9999999</v>
+      </c>
+      <c r="H8" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9">
-        <v>53800</v>
-      </c>
-      <c r="E9">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>8201100</v>
+      </c>
+      <c r="F9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8201100</v>
+      </c>
+      <c r="H9" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10">
-        <v>74600</v>
-      </c>
-      <c r="E10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="B10">
+        <v>8464300</v>
+      </c>
+      <c r="F10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>8464300</v>
+      </c>
+      <c r="H10" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" t="s">
-        <v>100</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>39500</v>
-      </c>
-      <c r="E11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>5042500</v>
+      </c>
+      <c r="F11" t="s">
+        <v>118</v>
+      </c>
+      <c r="G11" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>5042500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12">
-        <v>13000</v>
-      </c>
-      <c r="E12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>6993900</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="e">
+        <f t="shared" si="0"/>
+        <v>#N/A</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="1"/>
+        <v>6993900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13">
-        <v>57500</v>
-      </c>
-      <c r="E13">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14">
-        <v>21800</v>
-      </c>
-      <c r="E14">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15">
-        <v>31400</v>
-      </c>
-      <c r="E15">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16">
-        <v>21200</v>
-      </c>
-      <c r="E16">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>103</v>
-      </c>
-      <c r="B17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17">
-        <v>21000</v>
-      </c>
-      <c r="E17">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" t="s">
-        <v>100</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18">
-        <v>97500</v>
-      </c>
-      <c r="E18">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19">
-        <v>59100</v>
-      </c>
-      <c r="E19">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" t="s">
-        <v>60</v>
-      </c>
-      <c r="D20">
-        <v>37600</v>
-      </c>
-      <c r="E20">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21">
-        <v>37900</v>
-      </c>
-      <c r="E21">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22">
-        <v>55200</v>
-      </c>
-      <c r="E22">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23">
-        <v>35500</v>
-      </c>
-      <c r="E23">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24">
-        <v>42500</v>
-      </c>
-      <c r="E24">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25">
-        <v>11000</v>
-      </c>
-      <c r="E25">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B26" t="s">
-        <v>97</v>
-      </c>
-      <c r="C26" t="s">
-        <v>66</v>
-      </c>
-      <c r="D26">
-        <v>26400</v>
-      </c>
-      <c r="E26">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>101</v>
-      </c>
-      <c r="B27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C27" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27">
-        <v>26800</v>
-      </c>
-      <c r="E27">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28">
-        <v>93400</v>
-      </c>
-      <c r="E28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B29" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29">
-        <v>89800</v>
-      </c>
-      <c r="E29">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D30">
-        <v>57800</v>
-      </c>
-      <c r="E30">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" t="s">
-        <v>71</v>
-      </c>
-      <c r="D31">
-        <v>55800</v>
-      </c>
-      <c r="E31">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <v>51800</v>
-      </c>
-      <c r="E32">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" t="s">
-        <v>73</v>
-      </c>
-      <c r="D33">
-        <v>20100</v>
-      </c>
-      <c r="E33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>104</v>
-      </c>
-      <c r="B34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34">
-        <v>40300</v>
-      </c>
-      <c r="E34">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>99</v>
-      </c>
-      <c r="C35" t="s">
-        <v>75</v>
-      </c>
-      <c r="D35">
-        <v>20100</v>
-      </c>
-      <c r="E35">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>104</v>
-      </c>
-      <c r="B36" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36">
-        <v>63100</v>
-      </c>
-      <c r="E36">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" t="s">
-        <v>99</v>
-      </c>
-      <c r="C37" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37">
-        <v>83500</v>
-      </c>
-      <c r="E37">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>101</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
-      <c r="D38">
-        <v>60100</v>
-      </c>
-      <c r="E38">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
-      </c>
-      <c r="D39">
-        <v>44800</v>
-      </c>
-      <c r="E39">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40">
-        <v>81800</v>
-      </c>
-      <c r="E40">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-      <c r="D41">
-        <v>90200</v>
-      </c>
-      <c r="E41">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>101</v>
-      </c>
-      <c r="B42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42">
-        <v>34600</v>
-      </c>
-      <c r="E42">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C43" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43">
-        <v>62100</v>
-      </c>
-      <c r="E43">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>103</v>
-      </c>
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-      <c r="C44" t="s">
-        <v>84</v>
-      </c>
-      <c r="D44">
-        <v>43400</v>
-      </c>
-      <c r="E44">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C45" t="s">
-        <v>85</v>
-      </c>
-      <c r="D45">
-        <v>63800</v>
-      </c>
-      <c r="E45">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" t="s">
-        <v>106</v>
-      </c>
-      <c r="C46" t="s">
-        <v>86</v>
-      </c>
-      <c r="D46">
-        <v>62900</v>
-      </c>
-      <c r="E46">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" t="s">
-        <v>106</v>
-      </c>
-      <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47">
-        <v>47900</v>
-      </c>
-      <c r="E47">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" t="s">
-        <v>102</v>
-      </c>
-      <c r="C48" t="s">
-        <v>88</v>
-      </c>
-      <c r="D48">
-        <v>69900</v>
-      </c>
-      <c r="E48">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>89</v>
-      </c>
-      <c r="D49">
-        <v>71400</v>
-      </c>
-      <c r="E49">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>106</v>
-      </c>
-      <c r="C50" t="s">
-        <v>90</v>
-      </c>
-      <c r="D50">
-        <v>63900</v>
-      </c>
-      <c r="E50">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-      <c r="C51" t="s">
-        <v>91</v>
-      </c>
-      <c r="D51">
-        <v>11500</v>
-      </c>
-      <c r="E51">
-        <v>50</v>
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>9738100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>120</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>9738100</v>
+      </c>
+      <c r="H13" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="5121" r:id="rId3" name="Spinner 1">
+              <controlPr defaultSize="0" autoPict="0">
+                <anchor moveWithCells="1" sizeWithCells="1">
+                  <from>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>238125</xdr:colOff>
+                    <xdr:row>0</xdr:row>
+                    <xdr:rowOff>161925</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>2</xdr:col>
+                    <xdr:colOff>590550</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>66675</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CD5A55-09BD-477C-BA75-709F64115A84}">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2">
+        <v>630050</v>
+      </c>
+      <c r="C2">
+        <v>724270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3">
+        <v>724200</v>
+      </c>
+      <c r="C3">
+        <v>533000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>313480</v>
+      </c>
+      <c r="C4">
+        <v>430760</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5">
+        <v>227860</v>
+      </c>
+      <c r="C5">
+        <v>329520</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6">
+        <v>658660</v>
+      </c>
+      <c r="C6">
+        <v>550800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7">
+        <v>383890</v>
+      </c>
+      <c r="C7">
+        <v>450650</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8">
+        <v>245880</v>
+      </c>
+      <c r="C8">
+        <v>560390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>517920</v>
+      </c>
+      <c r="C9">
+        <v>537790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10">
+        <v>718350</v>
+      </c>
+      <c r="C10">
+        <v>297100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B11">
+        <v>496780</v>
+      </c>
+      <c r="C11">
+        <v>707660</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12">
+        <v>402990</v>
+      </c>
+      <c r="C12">
+        <v>727290</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13">
+        <v>285930</v>
+      </c>
+      <c r="C13">
+        <v>629260</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel for Batch23.xlsx
+++ b/Excel for Batch23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Interviews\batch23\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93399CA1-E252-42C6-9E12-C8CA89803302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59C6AD1-8C65-4F5C-8A48-92A9CFB1DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10320" activeTab="5" xr2:uid="{AE266A49-E809-4277-A811-C747DF6404C8}"/>
   </bookViews>
